--- a/data/Tire_Sample.xlsx
+++ b/data/Tire_Sample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Apac.corpdir.net\a575\public\_Projects\CO2_WS\20211101_vehicle_long_cal\20211216_Sample\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dhilitp\GUI\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="66">
   <si>
     <t>Data number</t>
     <phoneticPr fontId="0"/>
@@ -137,12 +137,134 @@
   </si>
   <si>
     <t>Size</t>
+  </si>
+  <si>
+    <t>TA/PCA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Kobayashi</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>195/85R15</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>185/85R16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>195/85R16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>205/70R16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>205/75R16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>205/85R16</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>205/70R17.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>205/80R17.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>215/70R17.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>225/80R17.5</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RIB</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>RIBLUG</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Single</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Double</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BS R202 ECOPIA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>TY M132A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DL SPLT38A</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YH RY108A SPEC-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YH RY108A SPEC-2</t>
+  </si>
+  <si>
+    <t>BS G590 ECOPIA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YH MY807 SPEC-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YH MY817 SPEC-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DL SPLT33K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>YH RY01C SPEC-2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BS R173 ECOPIA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>DL SP330K</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BS R115 ECOPIA</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>BS G588 ECOPIA</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000_ "/>
+  </numFmts>
   <fonts count="3">
     <font>
       <sz val="11"/>
@@ -184,7 +306,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -310,38 +432,16 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -350,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -382,16 +482,13 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -674,10 +771,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W12"/>
+  <dimension ref="A1:CD12"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="24.77734375" defaultRowHeight="21"/>
@@ -686,8 +783,8 @@
     <col min="2" max="16384" width="24.77734375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="21.6" thickBot="1"/>
-    <row r="2" spans="1:23">
+    <row r="1" spans="1:82" ht="21.6" thickBot="1"/>
+    <row r="2" spans="1:82">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -757,8 +854,185 @@
       <c r="W2" s="2">
         <v>22</v>
       </c>
+      <c r="X2" s="2">
+        <v>23</v>
+      </c>
+      <c r="Y2" s="2">
+        <v>24</v>
+      </c>
+      <c r="Z2" s="2">
+        <v>25</v>
+      </c>
+      <c r="AA2" s="2">
+        <v>26</v>
+      </c>
+      <c r="AB2" s="2">
+        <v>27</v>
+      </c>
+      <c r="AC2" s="2">
+        <v>28</v>
+      </c>
+      <c r="AD2" s="2">
+        <v>29</v>
+      </c>
+      <c r="AE2" s="2">
+        <v>30</v>
+      </c>
+      <c r="AF2" s="2">
+        <v>31</v>
+      </c>
+      <c r="AG2" s="2">
+        <v>32</v>
+      </c>
+      <c r="AH2" s="2">
+        <v>33</v>
+      </c>
+      <c r="AI2" s="2">
+        <v>34</v>
+      </c>
+      <c r="AJ2" s="2">
+        <v>35</v>
+      </c>
+      <c r="AK2" s="2">
+        <v>36</v>
+      </c>
+      <c r="AL2" s="2">
+        <v>37</v>
+      </c>
+      <c r="AM2" s="2">
+        <v>38</v>
+      </c>
+      <c r="AN2" s="2">
+        <v>39</v>
+      </c>
+      <c r="AO2" s="2">
+        <v>40</v>
+      </c>
+      <c r="AP2" s="2">
+        <v>41</v>
+      </c>
+      <c r="AQ2" s="2">
+        <v>42</v>
+      </c>
+      <c r="AR2" s="2">
+        <v>43</v>
+      </c>
+      <c r="AS2" s="2">
+        <v>44</v>
+      </c>
+      <c r="AT2" s="2">
+        <v>45</v>
+      </c>
+      <c r="AU2" s="2">
+        <v>46</v>
+      </c>
+      <c r="AV2" s="2">
+        <v>47</v>
+      </c>
+      <c r="AW2" s="2">
+        <v>48</v>
+      </c>
+      <c r="AX2" s="2">
+        <v>49</v>
+      </c>
+      <c r="AY2" s="2">
+        <v>50</v>
+      </c>
+      <c r="AZ2" s="2">
+        <v>51</v>
+      </c>
+      <c r="BA2" s="2">
+        <v>52</v>
+      </c>
+      <c r="BB2" s="2">
+        <v>53</v>
+      </c>
+      <c r="BC2" s="2">
+        <v>54</v>
+      </c>
+      <c r="BD2" s="2">
+        <v>55</v>
+      </c>
+      <c r="BE2" s="2">
+        <v>56</v>
+      </c>
+      <c r="BF2" s="2">
+        <v>57</v>
+      </c>
+      <c r="BG2" s="2">
+        <v>58</v>
+      </c>
+      <c r="BH2" s="2">
+        <v>59</v>
+      </c>
+      <c r="BI2" s="2">
+        <v>60</v>
+      </c>
+      <c r="BJ2" s="2">
+        <v>61</v>
+      </c>
+      <c r="BK2" s="2">
+        <v>62</v>
+      </c>
+      <c r="BL2" s="2">
+        <v>63</v>
+      </c>
+      <c r="BM2" s="2">
+        <v>64</v>
+      </c>
+      <c r="BN2" s="2">
+        <v>65</v>
+      </c>
+      <c r="BO2" s="2">
+        <v>66</v>
+      </c>
+      <c r="BP2" s="2">
+        <v>67</v>
+      </c>
+      <c r="BQ2" s="2">
+        <v>68</v>
+      </c>
+      <c r="BR2" s="2">
+        <v>69</v>
+      </c>
+      <c r="BS2" s="2">
+        <v>70</v>
+      </c>
+      <c r="BT2" s="2">
+        <v>71</v>
+      </c>
+      <c r="BU2" s="2">
+        <v>72</v>
+      </c>
+      <c r="BV2" s="2">
+        <v>73</v>
+      </c>
+      <c r="BW2" s="2">
+        <v>74</v>
+      </c>
+      <c r="BX2" s="2">
+        <v>75</v>
+      </c>
+      <c r="BY2" s="2">
+        <v>76</v>
+      </c>
+      <c r="BZ2" s="2">
+        <v>77</v>
+      </c>
+      <c r="CA2" s="2">
+        <v>78</v>
+      </c>
+      <c r="CB2" s="2">
+        <v>79</v>
+      </c>
+      <c r="CC2" s="2">
+        <v>80</v>
+      </c>
+      <c r="CD2" s="2">
+        <v>81</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" s="7" customFormat="1">
+    <row r="3" spans="1:82" s="7" customFormat="1">
       <c r="A3" s="8" t="s">
         <v>1</v>
       </c>
@@ -795,19 +1069,190 @@
       <c r="L3" s="7">
         <v>20211216</v>
       </c>
-      <c r="M3" s="11"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-      <c r="R3" s="6"/>
-      <c r="S3" s="6"/>
-      <c r="T3" s="6"/>
-      <c r="U3" s="6"/>
-      <c r="V3" s="6"/>
-      <c r="W3" s="6"/>
+      <c r="M3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="N3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="O3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="P3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="R3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="S3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="T3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="U3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="V3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="W3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="X3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="Y3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="Z3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AA3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AB3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AC3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AD3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AE3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AF3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AG3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AH3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AI3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AJ3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AK3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AL3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AM3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AN3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AO3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AQ3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AR3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AS3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AT3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AU3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AV3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AW3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AX3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AY3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="AZ3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BA3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BB3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BC3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BD3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BE3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BF3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BG3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BH3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BI3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BJ3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BK3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BL3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BM3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BN3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BO3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BP3" s="7">
+        <v>20221014</v>
+      </c>
+      <c r="BQ3" s="6"/>
+      <c r="BR3" s="6"/>
+      <c r="BS3" s="6"/>
+      <c r="BT3" s="6"/>
+      <c r="BU3" s="6"/>
+      <c r="BV3" s="6"/>
+      <c r="BW3" s="6"/>
+      <c r="BX3" s="6"/>
+      <c r="BY3" s="6"/>
+      <c r="BZ3" s="6"/>
+      <c r="CA3" s="6"/>
+      <c r="CB3" s="6"/>
+      <c r="CC3" s="6"/>
+      <c r="CD3" s="6"/>
     </row>
-    <row r="4" spans="1:23" s="7" customFormat="1">
+    <row r="4" spans="1:82" s="7" customFormat="1">
       <c r="A4" s="8" t="s">
         <v>2</v>
       </c>
@@ -844,19 +1289,190 @@
       <c r="L4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="11"/>
-      <c r="N4" s="6"/>
-      <c r="O4" s="6"/>
-      <c r="P4" s="6"/>
-      <c r="Q4" s="6"/>
-      <c r="R4" s="6"/>
-      <c r="S4" s="6"/>
-      <c r="T4" s="6"/>
-      <c r="U4" s="6"/>
-      <c r="V4" s="6"/>
-      <c r="W4" s="6"/>
+      <c r="M4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="N4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="R4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="S4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="U4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="V4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="W4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="X4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="Z4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AD4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AF4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AG4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AH4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AI4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AK4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AO4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AP4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AQ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AR4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AS4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AW4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="AZ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BB4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BC4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BD4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BE4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BF4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BG4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BI4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BJ4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BK4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BL4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BM4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BN4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BO4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BP4" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="BQ4" s="6"/>
+      <c r="BR4" s="6"/>
+      <c r="BS4" s="6"/>
+      <c r="BT4" s="6"/>
+      <c r="BU4" s="6"/>
+      <c r="BV4" s="6"/>
+      <c r="BW4" s="6"/>
+      <c r="BX4" s="6"/>
+      <c r="BY4" s="6"/>
+      <c r="BZ4" s="6"/>
+      <c r="CA4" s="6"/>
+      <c r="CB4" s="6"/>
+      <c r="CC4" s="6"/>
+      <c r="CD4" s="6"/>
     </row>
-    <row r="5" spans="1:23" s="7" customFormat="1">
+    <row r="5" spans="1:82" s="7" customFormat="1">
       <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
@@ -893,363 +1509,1732 @@
       <c r="L5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M5" s="11"/>
-      <c r="N5" s="6"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="6"/>
-      <c r="R5" s="6"/>
-      <c r="S5" s="6"/>
-      <c r="T5" s="6"/>
-      <c r="U5" s="6"/>
-      <c r="V5" s="6"/>
-      <c r="W5" s="6"/>
+      <c r="M5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="N5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="R5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="S5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="T5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="V5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="W5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="X5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AB5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AH5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AI5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AK5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AL5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AO5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AQ5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AR5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AS5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AT5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AU5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AV5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AW5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AX5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="AZ5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BC5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BD5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BE5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BF5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BG5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BH5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BI5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BK5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BL5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BM5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BN5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BO5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BP5" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="BQ5" s="6"/>
+      <c r="BR5" s="6"/>
+      <c r="BS5" s="6"/>
+      <c r="BT5" s="6"/>
+      <c r="BU5" s="6"/>
+      <c r="BV5" s="6"/>
+      <c r="BW5" s="6"/>
+      <c r="BX5" s="6"/>
+      <c r="BY5" s="6"/>
+      <c r="BZ5" s="6"/>
+      <c r="CA5" s="6"/>
+      <c r="CB5" s="6"/>
+      <c r="CC5" s="6"/>
+      <c r="CD5" s="6"/>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:82">
       <c r="A6" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="14" t="s">
+      <c r="C6" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="14" t="s">
+      <c r="K6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="14" t="s">
+      <c r="L6" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M6" s="12"/>
-      <c r="N6" s="3"/>
-      <c r="O6" s="3"/>
-      <c r="P6" s="3"/>
-      <c r="Q6" s="3"/>
-      <c r="R6" s="3"/>
-      <c r="S6" s="3"/>
-      <c r="T6" s="3"/>
-      <c r="U6" s="3"/>
-      <c r="V6" s="3"/>
-      <c r="W6" s="3"/>
+      <c r="M6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="N6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="P6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="R6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="V6" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="W6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="X6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z6" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AD6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AE6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AF6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH6" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="AI6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AJ6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AK6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AL6" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AO6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AP6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AQ6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AT6" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="AU6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AV6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AW6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AX6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="AZ6" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BB6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BC6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BD6" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="BE6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BF6" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="BG6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BH6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BI6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BJ6" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="BK6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BL6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BM6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BN6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BO6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BP6" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="BQ6" s="3"/>
+      <c r="BR6" s="3"/>
+      <c r="BS6" s="3"/>
+      <c r="BT6" s="3"/>
+      <c r="BU6" s="3"/>
+      <c r="BV6" s="3"/>
+      <c r="BW6" s="3"/>
+      <c r="BX6" s="3"/>
+      <c r="BY6" s="3"/>
+      <c r="BZ6" s="3"/>
+      <c r="CA6" s="3"/>
+      <c r="CB6" s="3"/>
+      <c r="CC6" s="3"/>
+      <c r="CD6" s="3"/>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:82">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="14">
+      <c r="B7" s="11">
         <v>327</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="14">
+      <c r="D7" s="11">
         <v>350</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="11">
         <v>327</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="11">
         <v>346</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G7" s="11">
         <v>358</v>
       </c>
-      <c r="H7" s="14">
+      <c r="H7" s="11">
         <v>338</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="11">
         <v>358</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="11">
         <v>347</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="11">
         <v>366</v>
       </c>
-      <c r="L7" s="14">
+      <c r="L7" s="11">
         <v>389</v>
       </c>
-      <c r="M7" s="12"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
-      <c r="R7" s="3"/>
-      <c r="S7" s="3"/>
-      <c r="T7" s="3"/>
-      <c r="U7" s="3"/>
-      <c r="V7" s="3"/>
-      <c r="W7" s="3"/>
+      <c r="M7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="N7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="P7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="R7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="S7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="T7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="U7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="V7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="W7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="X7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Y7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="Z7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AA7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AD7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AE7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AF7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AG7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AH7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AI7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AJ7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AK7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AL7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AM7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AN7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AO7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AP7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AQ7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AS7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AT7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="AU7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AV7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AW7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="AZ7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BA7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BB7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BC7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BD7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BE7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BF7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BG7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BH7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BI7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BJ7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BK7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BL7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BM7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BN7" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="BO7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BP7" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="BQ7" s="3"/>
+      <c r="BR7" s="3"/>
+      <c r="BS7" s="3"/>
+      <c r="BT7" s="3"/>
+      <c r="BU7" s="3"/>
+      <c r="BV7" s="3"/>
+      <c r="BW7" s="3"/>
+      <c r="BX7" s="3"/>
+      <c r="BY7" s="3"/>
+      <c r="BZ7" s="3"/>
+      <c r="CA7" s="3"/>
+      <c r="CB7" s="3"/>
+      <c r="CC7" s="3"/>
+      <c r="CD7" s="3"/>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:82">
       <c r="A8" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8" s="14" t="s">
+      <c r="B8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="G8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="I8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="K8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="L8" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="M8" s="12"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
+      <c r="D8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="L8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="N8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="P8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="R8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="U8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="V8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="W8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AA8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AD8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AF8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AG8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AH8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AI8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AJ8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AK8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AL8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AM8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AO8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AP8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AQ8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AR8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AS8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AT8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AU8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AV8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AW8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AX8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AY8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AZ8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BA8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BB8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BC8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BD8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BE8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BF8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BG8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BH8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BI8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BJ8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BK8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BL8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BM8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BN8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BO8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BP8" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="BQ8" s="3"/>
+      <c r="BR8" s="3"/>
+      <c r="BS8" s="3"/>
+      <c r="BT8" s="3"/>
+      <c r="BU8" s="3"/>
+      <c r="BV8" s="3"/>
+      <c r="BW8" s="3"/>
+      <c r="BX8" s="3"/>
+      <c r="BY8" s="3"/>
+      <c r="BZ8" s="3"/>
+      <c r="CA8" s="3"/>
+      <c r="CB8" s="3"/>
+      <c r="CC8" s="3"/>
+      <c r="CD8" s="3"/>
     </row>
-    <row r="9" spans="1:23">
+    <row r="9" spans="1:82">
       <c r="A9" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="E9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="K9" s="14" t="s">
+      <c r="K9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="L9" s="14" t="s">
+      <c r="L9" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="M9" s="12"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
+      <c r="M9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="P9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="R9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="S9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="T9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="U9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="V9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="W9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="X9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="Y9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AA9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AC9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AD9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AE9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AG9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AH9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AI9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AJ9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AK9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AM9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AN9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AO9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AP9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AQ9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AR9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AS9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AT9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AU9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AV9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AW9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="AY9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BB9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BC9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BD9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BE9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BF9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BG9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BH9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BI9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BJ9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BK9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BL9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BM9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BN9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BO9" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="BP9" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="BQ9" s="3"/>
+      <c r="BR9" s="3"/>
+      <c r="BS9" s="3"/>
+      <c r="BT9" s="3"/>
+      <c r="BU9" s="3"/>
+      <c r="BV9" s="3"/>
+      <c r="BW9" s="3"/>
+      <c r="BX9" s="3"/>
+      <c r="BY9" s="3"/>
+      <c r="BZ9" s="3"/>
+      <c r="CA9" s="3"/>
+      <c r="CB9" s="3"/>
+      <c r="CC9" s="3"/>
+      <c r="CD9" s="3"/>
     </row>
-    <row r="10" spans="1:23">
+    <row r="10" spans="1:82">
       <c r="A10" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>327</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="11">
         <v>437</v>
       </c>
-      <c r="D10" s="14">
+      <c r="D10" s="11">
         <v>350</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="11">
         <v>327</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="11">
         <v>346</v>
       </c>
-      <c r="G10" s="14">
+      <c r="G10" s="11">
         <v>358</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="11">
         <v>338</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="11">
         <v>358</v>
       </c>
-      <c r="J10" s="14">
+      <c r="J10" s="11">
         <v>347</v>
       </c>
-      <c r="K10" s="14">
+      <c r="K10" s="11">
         <v>366</v>
       </c>
-      <c r="L10" s="14">
+      <c r="L10" s="11">
         <v>389</v>
       </c>
-      <c r="M10" s="12"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="3"/>
-      <c r="S10" s="3"/>
-      <c r="T10" s="3"/>
-      <c r="U10" s="3"/>
-      <c r="V10" s="3"/>
-      <c r="W10" s="3"/>
+      <c r="M10" s="7">
+        <v>327</v>
+      </c>
+      <c r="N10" s="7">
+        <v>328</v>
+      </c>
+      <c r="O10" s="7">
+        <v>327</v>
+      </c>
+      <c r="P10" s="7">
+        <v>328</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>345</v>
+      </c>
+      <c r="R10" s="7">
+        <v>346</v>
+      </c>
+      <c r="S10" s="7">
+        <v>345</v>
+      </c>
+      <c r="T10" s="7">
+        <v>346</v>
+      </c>
+      <c r="U10" s="7">
+        <v>345</v>
+      </c>
+      <c r="V10" s="7">
+        <v>346</v>
+      </c>
+      <c r="W10" s="7">
+        <v>349</v>
+      </c>
+      <c r="X10" s="7">
+        <v>350</v>
+      </c>
+      <c r="Y10" s="7">
+        <v>349</v>
+      </c>
+      <c r="Z10" s="7">
+        <v>350</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>357</v>
+      </c>
+      <c r="AB10" s="7">
+        <v>358</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>357</v>
+      </c>
+      <c r="AD10" s="7">
+        <v>358</v>
+      </c>
+      <c r="AE10" s="7">
+        <v>357</v>
+      </c>
+      <c r="AF10" s="7">
+        <v>358</v>
+      </c>
+      <c r="AG10" s="7">
+        <v>357</v>
+      </c>
+      <c r="AH10" s="7">
+        <v>358</v>
+      </c>
+      <c r="AI10" s="7">
+        <v>337</v>
+      </c>
+      <c r="AJ10" s="7">
+        <v>338</v>
+      </c>
+      <c r="AK10" s="7">
+        <v>337</v>
+      </c>
+      <c r="AL10" s="7">
+        <v>338</v>
+      </c>
+      <c r="AM10" s="7">
+        <v>346</v>
+      </c>
+      <c r="AN10" s="7">
+        <v>347</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>346</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>347</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>346</v>
+      </c>
+      <c r="AR10" s="7">
+        <v>347</v>
+      </c>
+      <c r="AS10" s="7">
+        <v>346</v>
+      </c>
+      <c r="AT10" s="7">
+        <v>347</v>
+      </c>
+      <c r="AU10" s="7">
+        <v>365</v>
+      </c>
+      <c r="AV10" s="7">
+        <v>366</v>
+      </c>
+      <c r="AW10" s="7">
+        <v>365</v>
+      </c>
+      <c r="AX10" s="7">
+        <v>366</v>
+      </c>
+      <c r="AY10" s="7">
+        <v>365</v>
+      </c>
+      <c r="AZ10" s="7">
+        <v>366</v>
+      </c>
+      <c r="BA10" s="7">
+        <v>357</v>
+      </c>
+      <c r="BB10" s="7">
+        <v>358</v>
+      </c>
+      <c r="BC10" s="7">
+        <v>357</v>
+      </c>
+      <c r="BD10" s="7">
+        <v>358</v>
+      </c>
+      <c r="BE10" s="7">
+        <v>375</v>
+      </c>
+      <c r="BF10" s="7">
+        <v>376</v>
+      </c>
+      <c r="BG10" s="7">
+        <v>362</v>
+      </c>
+      <c r="BH10" s="7">
+        <v>363</v>
+      </c>
+      <c r="BI10" s="7">
+        <v>362</v>
+      </c>
+      <c r="BJ10" s="7">
+        <v>363</v>
+      </c>
+      <c r="BK10" s="7">
+        <v>389</v>
+      </c>
+      <c r="BL10" s="7">
+        <v>390</v>
+      </c>
+      <c r="BM10" s="7">
+        <v>389</v>
+      </c>
+      <c r="BN10" s="7">
+        <v>390</v>
+      </c>
+      <c r="BO10" s="7">
+        <v>389</v>
+      </c>
+      <c r="BP10" s="7">
+        <v>390</v>
+      </c>
+      <c r="BQ10" s="3"/>
+      <c r="BR10" s="3"/>
+      <c r="BS10" s="3"/>
+      <c r="BT10" s="3"/>
+      <c r="BU10" s="3"/>
+      <c r="BV10" s="3"/>
+      <c r="BW10" s="3"/>
+      <c r="BX10" s="3"/>
+      <c r="BY10" s="3"/>
+      <c r="BZ10" s="3"/>
+      <c r="CA10" s="3"/>
+      <c r="CB10" s="3"/>
+      <c r="CC10" s="3"/>
+      <c r="CD10" s="3"/>
     </row>
-    <row r="11" spans="1:23">
+    <row r="11" spans="1:82">
       <c r="A11" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="L11" s="14">
+      <c r="L11" s="11">
         <v>6.3E-3</v>
       </c>
-      <c r="M11" s="12"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
-      <c r="R11" s="3"/>
-      <c r="S11" s="3"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="3"/>
-      <c r="V11" s="3"/>
-      <c r="W11" s="3"/>
+      <c r="M11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="N11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="O11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="P11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="Q11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="R11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="S11" s="12">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="T11" s="12">
+        <v>6.4000000000000003E-3</v>
+      </c>
+      <c r="U11" s="12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="V11" s="12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="W11" s="12">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="X11" s="12">
+        <v>7.3000000000000001E-3</v>
+      </c>
+      <c r="Y11" s="12">
+        <v>7.6E-3</v>
+      </c>
+      <c r="Z11" s="12">
+        <v>7.6E-3</v>
+      </c>
+      <c r="AA11" s="12">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="AB11" s="12">
+        <v>6.7000000000000002E-3</v>
+      </c>
+      <c r="AC11" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AD11" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="AE11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="AF11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="AG11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AH11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AI11" s="12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AJ11" s="12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AK11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AL11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AM11" s="12">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>5.5999999999999999E-3</v>
+      </c>
+      <c r="AO11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AP11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AQ11" s="12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AR11" s="12">
+        <v>6.7999999999999996E-3</v>
+      </c>
+      <c r="AS11" s="12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AT11" s="12">
+        <v>6.6E-3</v>
+      </c>
+      <c r="AU11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AV11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="AW11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AX11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="AY11" s="12">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="AZ11" s="12">
+        <v>5.7999999999999996E-3</v>
+      </c>
+      <c r="BA11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="BB11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="BC11" s="12">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="BD11" s="12">
+        <v>5.4999999999999997E-3</v>
+      </c>
+      <c r="BE11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BF11" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="BG11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="BH11" s="12">
+        <v>5.7000000000000002E-3</v>
+      </c>
+      <c r="BI11" s="12">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="BJ11" s="12">
+        <v>5.4000000000000003E-3</v>
+      </c>
+      <c r="BK11" s="12">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="BL11" s="12">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="BM11" s="12">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="BN11" s="12">
+        <v>4.8999999999999998E-3</v>
+      </c>
+      <c r="BO11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="BP11" s="12">
+        <v>5.8999999999999999E-3</v>
+      </c>
+      <c r="BQ11" s="3"/>
+      <c r="BR11" s="3"/>
+      <c r="BS11" s="3"/>
+      <c r="BT11" s="3"/>
+      <c r="BU11" s="3"/>
+      <c r="BV11" s="3"/>
+      <c r="BW11" s="3"/>
+      <c r="BX11" s="3"/>
+      <c r="BY11" s="3"/>
+      <c r="BZ11" s="3"/>
+      <c r="CA11" s="3"/>
+      <c r="CB11" s="3"/>
+      <c r="CC11" s="3"/>
+      <c r="CD11" s="3"/>
     </row>
-    <row r="12" spans="1:23" ht="21.6" thickBot="1">
+    <row r="12" spans="1:82" ht="21.6" thickBot="1">
       <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C12" s="14" t="s">
+      <c r="C12" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D12" s="14" t="s">
+      <c r="D12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="14" t="s">
+      <c r="E12" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="K12" s="14" t="s">
+      <c r="K12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="L12" s="14" t="s">
+      <c r="L12" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="M12" s="13"/>
-      <c r="N12" s="4"/>
-      <c r="O12" s="4"/>
-      <c r="P12" s="4"/>
-      <c r="Q12" s="4"/>
-      <c r="R12" s="4"/>
-      <c r="S12" s="4"/>
-      <c r="T12" s="4"/>
-      <c r="U12" s="4"/>
-      <c r="V12" s="4"/>
-      <c r="W12" s="4"/>
+      <c r="M12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="N12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="O12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="R12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="S12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="T12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="U12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="V12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="W12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="X12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="Z12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AA12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AB12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AC12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AF12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AG12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AH12" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="AI12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AJ12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AK12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AN12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AO12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AP12" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="AQ12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AR12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="AS12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT12" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="AU12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AV12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="AW12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AX12" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="AY12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="AZ12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="BA12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BD12" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="BE12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BF12" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="BG12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BH12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="BI12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BJ12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BK12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BL12" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="BM12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN12" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="BO12" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP12" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="BQ12" s="4"/>
+      <c r="BR12" s="4"/>
+      <c r="BS12" s="4"/>
+      <c r="BT12" s="4"/>
+      <c r="BU12" s="4"/>
+      <c r="BV12" s="4"/>
+      <c r="BW12" s="4"/>
+      <c r="BX12" s="4"/>
+      <c r="BY12" s="4"/>
+      <c r="BZ12" s="4"/>
+      <c r="CA12" s="4"/>
+      <c r="CB12" s="4"/>
+      <c r="CC12" s="4"/>
+      <c r="CD12" s="4"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>